--- a/Notes/5. Import Data, Copy Data from Excel to R CSV & TXT Files  R/LungCapData2.xlsx
+++ b/Notes/5. Import Data, Copy Data from Excel to R CSV & TXT Files  R/LungCapData2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\R_learning\Notes\5. Import Data, Copy Data from Excel to R CSV &amp; TXT Files  R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250DB776-4FF9-4745-BBCF-A567521D4C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LungCapData2.csv" sheetId="1" r:id="rId1"/>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -89,6 +95,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,14 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E655"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9</v>
       </c>
@@ -454,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -471,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -488,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -505,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -522,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -539,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -556,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -573,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -590,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -607,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -624,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -641,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -658,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -675,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -692,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -709,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -726,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -743,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -760,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -777,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -794,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -811,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -828,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -845,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -862,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -879,7 +895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -896,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -913,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -930,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -947,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -964,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -981,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -998,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1032,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1049,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1083,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1151,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1219,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1236,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1304,7 +1320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1355,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1406,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1440,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -1457,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1491,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1508,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1525,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1542,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1559,7 +1575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9</v>
       </c>
@@ -1576,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1644,7 +1660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>8</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>9</v>
       </c>
@@ -1678,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -1729,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -1746,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1763,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -1780,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6</v>
       </c>
@@ -1797,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>7</v>
       </c>
@@ -1814,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>6</v>
       </c>
@@ -1831,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8</v>
       </c>
@@ -1848,7 +1864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>7</v>
       </c>
@@ -1882,7 +1898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
@@ -1899,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7</v>
       </c>
@@ -1916,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>9</v>
       </c>
@@ -1933,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1950,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
@@ -1984,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2018,7 +2034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2086,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7</v>
       </c>
@@ -2120,7 +2136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>8</v>
       </c>
@@ -2154,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2171,7 +2187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2205,7 +2221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9</v>
       </c>
@@ -2222,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -2239,7 +2255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2273,7 +2289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2290,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7</v>
       </c>
@@ -2307,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>8</v>
       </c>
@@ -2324,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>7</v>
       </c>
@@ -2341,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7</v>
       </c>
@@ -2358,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>7</v>
       </c>
@@ -2375,7 +2391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>7</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2409,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>7</v>
       </c>
@@ -2426,7 +2442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2443,7 +2459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8</v>
       </c>
@@ -2460,7 +2476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>7</v>
       </c>
@@ -2477,7 +2493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>9</v>
       </c>
@@ -2494,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>7</v>
       </c>
@@ -2511,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6</v>
       </c>
@@ -2545,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>8</v>
       </c>
@@ -2562,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>8</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>9</v>
       </c>
@@ -2613,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>7</v>
       </c>
@@ -2630,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8</v>
       </c>
@@ -2647,7 +2663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9</v>
       </c>
@@ -2664,7 +2680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>8</v>
       </c>
@@ -2681,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>8</v>
       </c>
@@ -2698,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>9</v>
       </c>
@@ -2715,7 +2731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>8</v>
       </c>
@@ -2732,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -2766,7 +2782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>8</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9</v>
       </c>
@@ -2800,7 +2816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5</v>
       </c>
@@ -2817,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7</v>
       </c>
@@ -2834,7 +2850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>9</v>
       </c>
@@ -2851,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -2868,7 +2884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>9</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>9</v>
       </c>
@@ -2902,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>9</v>
       </c>
@@ -2919,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>8</v>
       </c>
@@ -2953,7 +2969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>9</v>
       </c>
@@ -2970,7 +2986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>8</v>
       </c>
@@ -2987,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>8</v>
       </c>
@@ -3004,7 +3020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>9</v>
       </c>
@@ -3021,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3038,7 +3054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9</v>
       </c>
@@ -3055,7 +3071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3072,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8</v>
       </c>
@@ -3089,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -3106,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>9</v>
       </c>
@@ -3123,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>9</v>
       </c>
@@ -3140,7 +3156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>9</v>
       </c>
@@ -3157,7 +3173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3174,7 +3190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>8</v>
       </c>
@@ -3191,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5</v>
       </c>
@@ -3208,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3225,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9</v>
       </c>
@@ -3242,7 +3258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>6</v>
       </c>
@@ -3259,7 +3275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>9</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>6</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>8</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5</v>
       </c>
@@ -3327,7 +3343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7</v>
       </c>
@@ -3344,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7</v>
       </c>
@@ -3361,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -3378,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9</v>
       </c>
@@ -3395,7 +3411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>8</v>
       </c>
@@ -3412,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>9</v>
       </c>
@@ -3429,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -3446,7 +3462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9</v>
       </c>
@@ -3463,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5</v>
       </c>
@@ -3480,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>9</v>
       </c>
@@ -3497,7 +3513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>7</v>
       </c>
@@ -3514,7 +3530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -3531,7 +3547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>9</v>
       </c>
@@ -3548,7 +3564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>9</v>
       </c>
@@ -3565,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>9</v>
       </c>
@@ -3582,7 +3598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7</v>
       </c>
@@ -3599,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -3633,7 +3649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9</v>
       </c>
@@ -3650,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>7</v>
       </c>
@@ -3667,7 +3683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9</v>
       </c>
@@ -3684,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -3701,7 +3717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>6</v>
       </c>
@@ -3735,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6</v>
       </c>
@@ -3752,7 +3768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -3769,7 +3785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9</v>
       </c>
@@ -3786,7 +3802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>5</v>
       </c>
@@ -3803,7 +3819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>6</v>
       </c>
@@ -3820,7 +3836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>6</v>
       </c>
@@ -3837,7 +3853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -3854,7 +3870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>7</v>
       </c>
@@ -3871,7 +3887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>9</v>
       </c>
@@ -3888,7 +3904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>8</v>
       </c>
@@ -3905,7 +3921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>5</v>
       </c>
@@ -3922,7 +3938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>7</v>
       </c>
@@ -3939,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>6</v>
       </c>
@@ -3956,7 +3972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>9</v>
       </c>
@@ -3973,7 +3989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7</v>
       </c>
@@ -3990,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9</v>
       </c>
@@ -4007,7 +4023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>9</v>
       </c>
@@ -4024,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8</v>
       </c>
@@ -4041,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7</v>
       </c>
@@ -4075,7 +4091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>9</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -4109,7 +4125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>9</v>
       </c>
@@ -4126,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>5</v>
       </c>
@@ -4143,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8</v>
       </c>
@@ -4160,7 +4176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>9</v>
       </c>
@@ -4177,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>8</v>
       </c>
@@ -4194,7 +4210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3</v>
       </c>
@@ -4211,7 +4227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>9</v>
       </c>
@@ -4228,7 +4244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8</v>
       </c>
@@ -4245,7 +4261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -4262,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>9</v>
       </c>
@@ -4279,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>8</v>
       </c>
@@ -4296,7 +4312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>8</v>
       </c>
@@ -4313,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>7</v>
       </c>
@@ -4330,7 +4346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -4347,7 +4363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8</v>
       </c>
@@ -4364,7 +4380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9</v>
       </c>
@@ -4381,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>7</v>
       </c>
@@ -4415,7 +4431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -4432,7 +4448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -4449,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9</v>
       </c>
@@ -4466,7 +4482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>6</v>
       </c>
@@ -4483,7 +4499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8</v>
       </c>
@@ -4500,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>6</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>8</v>
       </c>
@@ -4534,7 +4550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>9</v>
       </c>
@@ -4551,7 +4567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>8</v>
       </c>
@@ -4568,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>7</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9</v>
       </c>
@@ -4602,7 +4618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>8</v>
       </c>
@@ -4619,7 +4635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>7</v>
       </c>
@@ -4636,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>9</v>
       </c>
@@ -4653,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8</v>
       </c>
@@ -4670,7 +4686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9</v>
       </c>
@@ -4687,7 +4703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>6</v>
       </c>
@@ -4704,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8</v>
       </c>
@@ -4721,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>9</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>8</v>
       </c>
@@ -4755,7 +4771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>9</v>
       </c>
@@ -4772,7 +4788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9</v>
       </c>
@@ -4789,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>8</v>
       </c>
@@ -4806,7 +4822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>7</v>
       </c>
@@ -4823,7 +4839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>5</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>7</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>8</v>
       </c>
@@ -4874,7 +4890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>9</v>
       </c>
@@ -4891,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>9</v>
       </c>
@@ -4908,7 +4924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4925,7 +4941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8</v>
       </c>
@@ -4942,7 +4958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>7</v>
       </c>
@@ -4959,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>9</v>
       </c>
@@ -4976,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>7</v>
       </c>
@@ -4993,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>7</v>
       </c>
@@ -5010,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>5</v>
       </c>
@@ -5027,7 +5043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>9</v>
       </c>
@@ -5044,7 +5060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>9</v>
       </c>
@@ -5061,7 +5077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -5078,7 +5094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -5095,7 +5111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>9</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>6</v>
       </c>
@@ -5129,7 +5145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>7</v>
       </c>
@@ -5146,7 +5162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>5</v>
       </c>
@@ -5163,7 +5179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>9</v>
       </c>
@@ -5180,7 +5196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>5</v>
       </c>
@@ -5197,7 +5213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>7</v>
       </c>
@@ -5214,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>8</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>7</v>
       </c>
@@ -5265,7 +5281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>8</v>
       </c>
@@ -5282,7 +5298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>4</v>
       </c>
@@ -5299,7 +5315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8</v>
       </c>
@@ -5316,7 +5332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>5</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>8</v>
       </c>
@@ -5350,7 +5366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>7</v>
       </c>
@@ -5367,7 +5383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>7</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>9</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9</v>
       </c>
@@ -5418,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>8</v>
       </c>
@@ -5435,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>9</v>
       </c>
@@ -5452,7 +5468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>6</v>
       </c>
@@ -5469,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>8</v>
       </c>
@@ -5486,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>9</v>
       </c>
@@ -5503,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>4</v>
       </c>
@@ -5520,7 +5536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>6</v>
       </c>
@@ -5537,7 +5553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>7</v>
       </c>
@@ -5554,7 +5570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>9</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>8</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6</v>
       </c>
@@ -5605,7 +5621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>8</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>7</v>
       </c>
@@ -5639,7 +5655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>5</v>
       </c>
@@ -5656,7 +5672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>8</v>
       </c>
@@ -5673,7 +5689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>7</v>
       </c>
@@ -5690,7 +5706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>11</v>
       </c>
@@ -5707,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>10</v>
       </c>
@@ -5724,7 +5740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -5741,7 +5757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>11</v>
       </c>
@@ -5758,7 +5774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>11</v>
       </c>
@@ -5775,7 +5791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>12</v>
       </c>
@@ -5792,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>10</v>
       </c>
@@ -5809,7 +5825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>11</v>
       </c>
@@ -5826,7 +5842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>10</v>
       </c>
@@ -5843,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>14</v>
       </c>
@@ -5860,7 +5876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>13</v>
       </c>
@@ -5877,7 +5893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -5894,7 +5910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>12</v>
       </c>
@@ -5911,7 +5927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>12</v>
       </c>
@@ -5928,7 +5944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>10</v>
       </c>
@@ -5945,7 +5961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>13</v>
       </c>
@@ -5962,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>10</v>
       </c>
@@ -5979,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>11</v>
       </c>
@@ -5996,7 +6012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>10</v>
       </c>
@@ -6013,7 +6029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>11</v>
       </c>
@@ -6030,7 +6046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>10</v>
       </c>
@@ -6047,7 +6063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>13</v>
       </c>
@@ -6064,7 +6080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>11</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>10</v>
       </c>
@@ -6115,7 +6131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>11</v>
       </c>
@@ -6132,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>13</v>
       </c>
@@ -6149,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>10</v>
       </c>
@@ -6166,7 +6182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>10</v>
       </c>
@@ -6183,7 +6199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>12</v>
       </c>
@@ -6200,7 +6216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10</v>
       </c>
@@ -6217,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>10</v>
       </c>
@@ -6234,7 +6250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>10</v>
       </c>
@@ -6251,7 +6267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>11</v>
       </c>
@@ -6268,7 +6284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>11</v>
       </c>
@@ -6285,7 +6301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>11</v>
       </c>
@@ -6302,7 +6318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>10</v>
       </c>
@@ -6319,7 +6335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>11</v>
       </c>
@@ -6336,7 +6352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>11</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>13</v>
       </c>
@@ -6370,7 +6386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>13</v>
       </c>
@@ -6387,7 +6403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>11</v>
       </c>
@@ -6404,7 +6420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>11</v>
       </c>
@@ -6421,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>14</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>11</v>
       </c>
@@ -6455,7 +6471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>10</v>
       </c>
@@ -6472,7 +6488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>10</v>
       </c>
@@ -6489,7 +6505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>10</v>
       </c>
@@ -6506,7 +6522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>14</v>
       </c>
@@ -6523,7 +6539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>13</v>
       </c>
@@ -6540,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>10</v>
       </c>
@@ -6557,7 +6573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>14</v>
       </c>
@@ -6574,7 +6590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>10</v>
       </c>
@@ -6591,7 +6607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>11</v>
       </c>
@@ -6608,7 +6624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>13</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>12</v>
       </c>
@@ -6642,7 +6658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>13</v>
       </c>
@@ -6659,7 +6675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>10</v>
       </c>
@@ -6676,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>13</v>
       </c>
@@ -6693,7 +6709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>11</v>
       </c>
@@ -6710,7 +6726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>14</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>11</v>
       </c>
@@ -6744,7 +6760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>13</v>
       </c>
@@ -6761,7 +6777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>11</v>
       </c>
@@ -6778,7 +6794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>11</v>
       </c>
@@ -6795,7 +6811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>10</v>
       </c>
@@ -6812,7 +6828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>11</v>
       </c>
@@ -6829,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>11</v>
       </c>
@@ -6846,7 +6862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>10</v>
       </c>
@@ -6863,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>11</v>
       </c>
@@ -6880,7 +6896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>13</v>
       </c>
@@ -6897,7 +6913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>12</v>
       </c>
@@ -6914,7 +6930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>10</v>
       </c>
@@ -6931,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>10</v>
       </c>
@@ -6948,7 +6964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>14</v>
       </c>
@@ -6965,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>11</v>
       </c>
@@ -6982,7 +6998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>10</v>
       </c>
@@ -6999,7 +7015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>11</v>
       </c>
@@ -7016,7 +7032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>10</v>
       </c>
@@ -7033,7 +7049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>11</v>
       </c>
@@ -7050,7 +7066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>13</v>
       </c>
@@ -7067,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>13</v>
       </c>
@@ -7084,7 +7100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>10</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>11</v>
       </c>
@@ -7118,7 +7134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>11</v>
       </c>
@@ -7135,7 +7151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>12</v>
       </c>
@@ -7152,7 +7168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>10</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>10</v>
       </c>
@@ -7186,7 +7202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>11</v>
       </c>
@@ -7203,7 +7219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>10</v>
       </c>
@@ -7220,7 +7236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>11</v>
       </c>
@@ -7237,7 +7253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>14</v>
       </c>
@@ -7254,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>13</v>
       </c>
@@ -7271,7 +7287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>12</v>
       </c>
@@ -7288,7 +7304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>11</v>
       </c>
@@ -7305,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>11</v>
       </c>
@@ -7322,7 +7338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>11</v>
       </c>
@@ -7339,7 +7355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>14</v>
       </c>
@@ -7356,7 +7372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>12</v>
       </c>
@@ -7373,7 +7389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>10</v>
       </c>
@@ -7390,7 +7406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>12</v>
       </c>
@@ -7407,7 +7423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>11</v>
       </c>
@@ -7424,7 +7440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>10</v>
       </c>
@@ -7441,7 +7457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>11</v>
       </c>
@@ -7458,7 +7474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>13</v>
       </c>
@@ -7475,7 +7491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>10</v>
       </c>
@@ -7492,7 +7508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>10</v>
       </c>
@@ -7509,7 +7525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>11</v>
       </c>
@@ -7526,7 +7542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>13</v>
       </c>
@@ -7543,7 +7559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>10</v>
       </c>
@@ -7560,7 +7576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>11</v>
       </c>
@@ -7577,7 +7593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>10</v>
       </c>
@@ -7594,7 +7610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>13</v>
       </c>
@@ -7611,7 +7627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>11</v>
       </c>
@@ -7628,7 +7644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>10</v>
       </c>
@@ -7645,7 +7661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>11</v>
       </c>
@@ -7662,7 +7678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>11</v>
       </c>
@@ -7679,7 +7695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>14</v>
       </c>
@@ -7696,7 +7712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>11</v>
       </c>
@@ -7713,7 +7729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>13</v>
       </c>
@@ -7730,7 +7746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>11</v>
       </c>
@@ -7747,7 +7763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>11</v>
       </c>
@@ -7764,7 +7780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>10</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>13</v>
       </c>
@@ -7798,7 +7814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>10</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>13</v>
       </c>
@@ -7832,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>10</v>
       </c>
@@ -7849,7 +7865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>12</v>
       </c>
@@ -7866,7 +7882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>10</v>
       </c>
@@ -7883,7 +7899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>14</v>
       </c>
@@ -7900,7 +7916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>12</v>
       </c>
@@ -7917,7 +7933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>10</v>
       </c>
@@ -7934,7 +7950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>11</v>
       </c>
@@ -7951,7 +7967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>14</v>
       </c>
@@ -7968,7 +7984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>12</v>
       </c>
@@ -7985,7 +8001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>10</v>
       </c>
@@ -8002,7 +8018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>10</v>
       </c>
@@ -8019,7 +8035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>10</v>
       </c>
@@ -8036,7 +8052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>10</v>
       </c>
@@ -8053,7 +8069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>12</v>
       </c>
@@ -8070,7 +8086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>13</v>
       </c>
@@ -8087,7 +8103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>11</v>
       </c>
@@ -8104,7 +8120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>12</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>11</v>
       </c>
@@ -8138,7 +8154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>12</v>
       </c>
@@ -8155,7 +8171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>11</v>
       </c>
@@ -8172,7 +8188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>11</v>
       </c>
@@ -8189,7 +8205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>12</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>12</v>
       </c>
@@ -8223,7 +8239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>13</v>
       </c>
@@ -8240,7 +8256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>11</v>
       </c>
@@ -8257,7 +8273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>12</v>
       </c>
@@ -8274,7 +8290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>10</v>
       </c>
@@ -8291,7 +8307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>12</v>
       </c>
@@ -8308,7 +8324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>13</v>
       </c>
@@ -8325,7 +8341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>10</v>
       </c>
@@ -8342,7 +8358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>12</v>
       </c>
@@ -8359,7 +8375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>10</v>
       </c>
@@ -8376,7 +8392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>12</v>
       </c>
@@ -8393,7 +8409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>10</v>
       </c>
@@ -8410,7 +8426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>11</v>
       </c>
@@ -8427,7 +8443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>10</v>
       </c>
@@ -8444,7 +8460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>12</v>
       </c>
@@ -8461,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>14</v>
       </c>
@@ -8478,7 +8494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>10</v>
       </c>
@@ -8495,7 +8511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>10</v>
       </c>
@@ -8512,7 +8528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>12</v>
       </c>
@@ -8529,7 +8545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>10</v>
       </c>
@@ -8546,7 +8562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>10</v>
       </c>
@@ -8563,7 +8579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>13</v>
       </c>
@@ -8580,7 +8596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>12</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>12</v>
       </c>
@@ -8614,7 +8630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>11</v>
       </c>
@@ -8631,7 +8647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>13</v>
       </c>
@@ -8648,7 +8664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>12</v>
       </c>
@@ -8665,7 +8681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>10</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>11</v>
       </c>
@@ -8699,7 +8715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>11</v>
       </c>
@@ -8716,7 +8732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>13</v>
       </c>
@@ -8733,7 +8749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>12</v>
       </c>
@@ -8750,7 +8766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>13</v>
       </c>
@@ -8767,7 +8783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>13</v>
       </c>
@@ -8784,7 +8800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>10</v>
       </c>
@@ -8801,7 +8817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>12</v>
       </c>
@@ -8818,7 +8834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>12</v>
       </c>
@@ -8835,7 +8851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>14</v>
       </c>
@@ -8852,7 +8868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>11</v>
       </c>
@@ -8869,7 +8885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>10</v>
       </c>
@@ -8886,7 +8902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>13</v>
       </c>
@@ -8903,7 +8919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>11</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>11</v>
       </c>
@@ -8937,7 +8953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>13</v>
       </c>
@@ -8954,7 +8970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>12</v>
       </c>
@@ -8971,7 +8987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>10</v>
       </c>
@@ -8988,7 +9004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>10</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>12</v>
       </c>
@@ -9022,7 +9038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>13</v>
       </c>
@@ -9039,7 +9055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>11</v>
       </c>
@@ -9056,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>10</v>
       </c>
@@ -9073,7 +9089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>11</v>
       </c>
@@ -9090,7 +9106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>11</v>
       </c>
@@ -9107,7 +9123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>11</v>
       </c>
@@ -9124,7 +9140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>11</v>
       </c>
@@ -9141,7 +9157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>11</v>
       </c>
@@ -9158,7 +9174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>14</v>
       </c>
@@ -9175,7 +9191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>12</v>
       </c>
@@ -9192,7 +9208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>13</v>
       </c>
@@ -9209,7 +9225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>13</v>
       </c>
@@ -9226,7 +9242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>10</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>12</v>
       </c>
@@ -9260,7 +9276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>10</v>
       </c>
@@ -9277,7 +9293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>10</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>12</v>
       </c>
@@ -9311,7 +9327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>11</v>
       </c>
@@ -9328,7 +9344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>12</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>11</v>
       </c>
@@ -9362,7 +9378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>11</v>
       </c>
@@ -9379,7 +9395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>12</v>
       </c>
@@ -9396,7 +9412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>12</v>
       </c>
@@ -9413,7 +9429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>14</v>
       </c>
@@ -9430,7 +9446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>11</v>
       </c>
@@ -9447,7 +9463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>10</v>
       </c>
@@ -9464,7 +9480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>11</v>
       </c>
@@ -9481,7 +9497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>12</v>
       </c>
@@ -9498,7 +9514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>13</v>
       </c>
@@ -9515,7 +9531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>12</v>
       </c>
@@ -9532,7 +9548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>11</v>
       </c>
@@ -9549,7 +9565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>11</v>
       </c>
@@ -9566,7 +9582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>11</v>
       </c>
@@ -9583,7 +9599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>14</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>11</v>
       </c>
@@ -9617,7 +9633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>13</v>
       </c>
@@ -9634,7 +9650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>12</v>
       </c>
@@ -9651,7 +9667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>10</v>
       </c>
@@ -9668,7 +9684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>12</v>
       </c>
@@ -9685,7 +9701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>13</v>
       </c>
@@ -9702,7 +9718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>10</v>
       </c>
@@ -9719,7 +9735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>10</v>
       </c>
@@ -9736,7 +9752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>10</v>
       </c>
@@ -9753,7 +9769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>10</v>
       </c>
@@ -9770,7 +9786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>14</v>
       </c>
@@ -9787,7 +9803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>12</v>
       </c>
@@ -9804,7 +9820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>11</v>
       </c>
@@ -9821,7 +9837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>11</v>
       </c>
@@ -9838,7 +9854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>12</v>
       </c>
@@ -9855,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>14</v>
       </c>
@@ -9872,7 +9888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>14</v>
       </c>
@@ -9889,7 +9905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>10</v>
       </c>
@@ -9906,7 +9922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>11</v>
       </c>
@@ -9923,7 +9939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>11</v>
       </c>
@@ -9940,7 +9956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>10</v>
       </c>
@@ -9957,7 +9973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>10</v>
       </c>
@@ -9974,7 +9990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>12</v>
       </c>
@@ -9991,7 +10007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>12</v>
       </c>
@@ -10008,7 +10024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>11</v>
       </c>
@@ -10025,7 +10041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>12</v>
       </c>
@@ -10042,7 +10058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>10</v>
       </c>
@@ -10059,7 +10075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>12</v>
       </c>
@@ -10076,7 +10092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>13</v>
       </c>
@@ -10093,7 +10109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>10</v>
       </c>
@@ -10110,7 +10126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>12</v>
       </c>
@@ -10127,7 +10143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>10</v>
       </c>
@@ -10144,7 +10160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>13</v>
       </c>
@@ -10161,7 +10177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>12</v>
       </c>
@@ -10178,7 +10194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>10</v>
       </c>
@@ -10195,7 +10211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>12</v>
       </c>
@@ -10212,7 +10228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>10</v>
       </c>
@@ -10229,7 +10245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>11</v>
       </c>
@@ -10246,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>12</v>
       </c>
@@ -10263,7 +10279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>11</v>
       </c>
@@ -10280,7 +10296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>12</v>
       </c>
@@ -10297,7 +10313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>10</v>
       </c>
@@ -10314,7 +10330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>13</v>
       </c>
@@ -10331,7 +10347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>12</v>
       </c>
@@ -10348,7 +10364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>11</v>
       </c>
@@ -10365,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>11</v>
       </c>
@@ -10382,7 +10398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>11</v>
       </c>
@@ -10399,7 +10415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>11</v>
       </c>
@@ -10416,7 +10432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>12</v>
       </c>
@@ -10433,7 +10449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>14</v>
       </c>
@@ -10450,7 +10466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>11</v>
       </c>
@@ -10467,7 +10483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>11</v>
       </c>
@@ -10484,7 +10500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>12</v>
       </c>
@@ -10501,7 +10517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>14</v>
       </c>
@@ -10518,7 +10534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>11</v>
       </c>
@@ -10535,7 +10551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>13</v>
       </c>
@@ -10552,7 +10568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>11</v>
       </c>
@@ -10569,7 +10585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>10</v>
       </c>
@@ -10586,7 +10602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>13</v>
       </c>
@@ -10603,7 +10619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>12</v>
       </c>
@@ -10620,7 +10636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>11</v>
       </c>
@@ -10637,7 +10653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>13</v>
       </c>
@@ -10654,7 +10670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>14</v>
       </c>
@@ -10671,7 +10687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>10</v>
       </c>
@@ -10688,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>11</v>
       </c>
@@ -10705,7 +10721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>11</v>
       </c>
@@ -10722,7 +10738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>15</v>
       </c>
@@ -10739,7 +10755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>15</v>
       </c>
@@ -10756,7 +10772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>18</v>
       </c>
@@ -10773,7 +10789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>19</v>
       </c>
@@ -10790,7 +10806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>19</v>
       </c>
@@ -10807,7 +10823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>16</v>
       </c>
@@ -10824,7 +10840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>17</v>
       </c>
@@ -10841,7 +10857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>15</v>
       </c>
@@ -10858,7 +10874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>15</v>
       </c>
@@ -10875,7 +10891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>15</v>
       </c>
@@ -10892,7 +10908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>15</v>
       </c>
@@ -10909,7 +10925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>15</v>
       </c>
@@ -10926,7 +10942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>19</v>
       </c>
@@ -10943,7 +10959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>18</v>
       </c>
@@ -10960,7 +10976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>16</v>
       </c>
@@ -10977,7 +10993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>17</v>
       </c>
@@ -10994,7 +11010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>16</v>
       </c>
@@ -11011,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>15</v>
       </c>
@@ -11028,7 +11044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>15</v>
       </c>
@@ -11045,7 +11061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>15</v>
       </c>
@@ -11062,7 +11078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>18</v>
       </c>
@@ -11079,7 +11095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>17</v>
       </c>
@@ -11096,7 +11112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>15</v>
       </c>
@@ -11113,7 +11129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>17</v>
       </c>
@@ -11130,7 +11146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>17</v>
       </c>
@@ -11147,7 +11163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>16</v>
       </c>
@@ -11164,7 +11180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>17</v>
       </c>
@@ -11181,7 +11197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>15</v>
       </c>
@@ -11198,7 +11214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>15</v>
       </c>
@@ -11215,7 +11231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>16</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>16</v>
       </c>
@@ -11249,7 +11265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>15</v>
       </c>
@@ -11266,7 +11282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>18</v>
       </c>
@@ -11283,7 +11299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>15</v>
       </c>
@@ -11300,7 +11316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>16</v>
       </c>
@@ -11317,7 +11333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>17</v>
       </c>
@@ -11334,7 +11350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>16</v>
       </c>
@@ -11351,7 +11367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>16</v>
       </c>
@@ -11368,7 +11384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>15</v>
       </c>
@@ -11385,7 +11401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>18</v>
       </c>
@@ -11402,7 +11418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>15</v>
       </c>
@@ -11419,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>16</v>
       </c>
@@ -11436,7 +11452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>17</v>
       </c>
@@ -11453,7 +11469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>16</v>
       </c>
@@ -11470,7 +11486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>16</v>
       </c>
@@ -11487,7 +11503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>15</v>
       </c>
@@ -11504,7 +11520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>18</v>
       </c>
@@ -11521,7 +11537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>16</v>
       </c>
@@ -11538,7 +11554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>15</v>
       </c>
